--- a/Output logs/stats_summary_1-8 fb table.xlsx
+++ b/Output logs/stats_summary_1-8 fb table.xlsx
@@ -1221,26 +1221,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I94" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I94" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I94">
     <filterColumn colId="1">
       <filters>
+        <filter val="Effort"/>
+        <filter val="Frustration Level"/>
         <filter val="Mental Demand"/>
+        <filter val="Performance"/>
         <filter val="Physical Demand"/>
         <filter val="Temporal Demand"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="load" dataDxfId="10"/>
-    <tableColumn id="2" name="var" dataDxfId="9"/>
-    <tableColumn id="3" name="rm_sig" dataDxfId="8"/>
-    <tableColumn id="4" name="rm_session" dataDxfId="7"/>
-    <tableColumn id="5" name="rm_loading" dataDxfId="6"/>
-    <tableColumn id="6" name="rm_interaction" dataDxfId="5"/>
-    <tableColumn id="7" name="spher" dataDxfId="4"/>
-    <tableColumn id="8" name="spher_p" dataDxfId="3"/>
-    <tableColumn id="9" name="norm_res" dataDxfId="2"/>
+    <tableColumn id="1" name="load" dataDxfId="8"/>
+    <tableColumn id="2" name="var" dataDxfId="7"/>
+    <tableColumn id="3" name="rm_sig" dataDxfId="6"/>
+    <tableColumn id="4" name="rm_session" dataDxfId="5"/>
+    <tableColumn id="5" name="rm_loading" dataDxfId="4"/>
+    <tableColumn id="6" name="rm_interaction" dataDxfId="3"/>
+    <tableColumn id="7" name="spher" dataDxfId="2"/>
+    <tableColumn id="8" name="spher_p" dataDxfId="1"/>
+    <tableColumn id="9" name="norm_res" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1512,7 +1515,7 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,7 +2081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>143</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>143</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>175</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>175</v>
       </c>
@@ -3730,7 +3733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>175</v>
       </c>
